--- a/experiments/00_general/results/statistics/stats_cortisol_raw_wakeup_source.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_raw_wakeup_source.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
   <si>
     <t>parameter</t>
   </si>
@@ -185,88 +185,85 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>7.541e+20</t>
-  </si>
-  <si>
-    <t>7.402e+24</t>
-  </si>
-  <si>
-    <t>1.013e+17</t>
-  </si>
-  <si>
-    <t>2.657e+09</t>
-  </si>
-  <si>
-    <t>5.788e+10</t>
-  </si>
-  <si>
-    <t>1258.985</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>8120.352</t>
-  </si>
-  <si>
-    <t>1.549e+09</t>
-  </si>
-  <si>
-    <t>2689.948</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>5.827e+05</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.519</t>
-  </si>
-  <si>
-    <t>0.359</t>
+    <t>2.32e+21</t>
+  </si>
+  <si>
+    <t>4.067e+25</t>
+  </si>
+  <si>
+    <t>2.359e+17</t>
+  </si>
+  <si>
+    <t>3.177e+09</t>
+  </si>
+  <si>
+    <t>1.05e+11</t>
+  </si>
+  <si>
+    <t>1372.761</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>2.076e+04</t>
+  </si>
+  <si>
+    <t>5.4e+09</t>
+  </si>
+  <si>
+    <t>3427.544</t>
+  </si>
+  <si>
+    <t>0.201</t>
+  </si>
+  <si>
+    <t>4.975e+05</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.329</t>
   </si>
   <si>
     <t>0.366</t>
   </si>
   <si>
-    <t>1709.765</t>
-  </si>
-  <si>
-    <t>0.182</t>
-  </si>
-  <si>
-    <t>3.238e+04</t>
-  </si>
-  <si>
-    <t>13.918</t>
-  </si>
-  <si>
-    <t>0.599</t>
-  </si>
-  <si>
-    <t>324.893</t>
-  </si>
-  <si>
-    <t>1.748</t>
-  </si>
-  <si>
-    <t>2.292</t>
-  </si>
-  <si>
-    <t>9.493</t>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.352</t>
+  </si>
+  <si>
+    <t>2034.211</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>2.388e+04</t>
+  </si>
+  <si>
+    <t>15.414</t>
+  </si>
+  <si>
+    <t>0.486</t>
+  </si>
+  <si>
+    <t>283.325</t>
+  </si>
+  <si>
+    <t>1.833</t>
+  </si>
+  <si>
+    <t>1.781</t>
+  </si>
+  <si>
+    <t>9.11</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -720,10 +717,10 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.9527</v>
+        <v>0.9533</v>
       </c>
       <c r="D3">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -735,10 +732,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>0.9437</v>
+        <v>0.9472</v>
       </c>
       <c r="D4">
-        <v>0.0021</v>
+        <v>0.0028</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -767,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.9439</v>
+        <v>0.9446</v>
       </c>
       <c r="D6">
         <v>0.0013</v>
@@ -782,10 +779,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.9861</v>
+        <v>0.9865</v>
       </c>
       <c r="D7">
-        <v>0.5785</v>
+        <v>0.5831</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -814,10 +811,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.9559</v>
+        <v>0.9549</v>
       </c>
       <c r="D9">
-        <v>0.0067</v>
+        <v>0.0054</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -829,10 +826,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>0.9848</v>
+        <v>0.9867</v>
       </c>
       <c r="D10">
-        <v>0.4977</v>
+        <v>0.597</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -861,10 +858,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.9543</v>
+        <v>0.9527</v>
       </c>
       <c r="D12">
-        <v>0.0054</v>
+        <v>0.004</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -876,10 +873,10 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.9742</v>
+        <v>0.9764</v>
       </c>
       <c r="D13">
-        <v>0.1243</v>
+        <v>0.1566</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -908,10 +905,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.946</v>
+        <v>0.9439</v>
       </c>
       <c r="D15">
-        <v>0.0018</v>
+        <v>0.0012</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -923,10 +920,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>0.9377</v>
+        <v>0.9411</v>
       </c>
       <c r="D16">
-        <v>0.001</v>
+        <v>0.0013</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -995,10 +992,10 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>0.1025</v>
+        <v>0.1138</v>
       </c>
       <c r="D3">
-        <v>0.9026</v>
+        <v>0.8925</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1012,10 +1009,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>1.2427</v>
+        <v>1.4001</v>
       </c>
       <c r="D4">
-        <v>0.2913</v>
+        <v>0.2495</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1029,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>3.6289</v>
+        <v>3.4148</v>
       </c>
       <c r="D5">
-        <v>0.0287</v>
+        <v>0.0352</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1046,10 +1043,10 @@
         <v>24</v>
       </c>
       <c r="C6">
-        <v>3.0285</v>
+        <v>3.0055</v>
       </c>
       <c r="D6">
-        <v>0.0511</v>
+        <v>0.0522</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1063,10 +1060,10 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <v>2.1939</v>
+        <v>2.2895</v>
       </c>
       <c r="D7">
-        <v>0.1148</v>
+        <v>0.1045</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1139,25 +1136,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>586.2934</v>
+        <v>567.9501</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F3">
-        <v>293.1467</v>
+        <v>283.9751</v>
       </c>
       <c r="G3">
-        <v>3.1114</v>
+        <v>3.0401</v>
       </c>
       <c r="H3">
-        <v>0.0472</v>
+        <v>0.0505</v>
       </c>
       <c r="J3">
-        <v>0.0368</v>
+        <v>0.0353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1168,19 +1165,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4008.1461</v>
+        <v>4063.2874</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F4">
-        <v>1002.0365</v>
+        <v>1015.8218</v>
       </c>
       <c r="G4">
-        <v>70.1507</v>
+        <v>71.628</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1189,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3009</v>
+        <v>0.3014</v>
       </c>
       <c r="K4">
-        <v>0.4905</v>
+        <v>0.4913</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0978</v>
+        <v>0.1004</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1212,25 +1209,25 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>601.0706</v>
+        <v>579.7042</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="F5">
-        <v>75.13379999999999</v>
+        <v>72.46299999999999</v>
       </c>
       <c r="G5">
-        <v>5.26</v>
+        <v>5.1095</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0606</v>
+        <v>0.058</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1245,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1315,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-11.9104</v>
+        <v>-12.0498</v>
       </c>
       <c r="I3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -1330,7 +1327,7 @@
         <v>55</v>
       </c>
       <c r="M3">
-        <v>-0.8233</v>
+        <v>-0.8262</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1359,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-13.3572</v>
+        <v>-13.5737</v>
       </c>
       <c r="I4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1374,7 +1371,7 @@
         <v>56</v>
       </c>
       <c r="M4">
-        <v>-1.2209</v>
+        <v>-1.2263</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1403,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-10.4929</v>
+        <v>-10.6019</v>
       </c>
       <c r="I5">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -1418,7 +1415,7 @@
         <v>57</v>
       </c>
       <c r="M5">
-        <v>-1.0977</v>
+        <v>-1.097</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1447,10 +1444,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-7.5545</v>
+        <v>-7.5767</v>
       </c>
       <c r="I6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -1462,7 +1459,7 @@
         <v>58</v>
       </c>
       <c r="M6">
-        <v>-0.8323</v>
+        <v>-0.8264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1491,10 +1488,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-8.1014</v>
+        <v>-8.192399999999999</v>
       </c>
       <c r="I7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
@@ -1506,7 +1503,7 @@
         <v>59</v>
       </c>
       <c r="M7">
-        <v>-0.4315</v>
+        <v>-0.4373</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1535,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.547</v>
+        <v>-4.5678</v>
       </c>
       <c r="I8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
@@ -1550,7 +1547,7 @@
         <v>60</v>
       </c>
       <c r="M8">
-        <v>-0.3599</v>
+        <v>-0.3596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1579,22 +1576,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.9123</v>
+        <v>-0.8544</v>
       </c>
       <c r="I9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0.363</v>
+        <v>0.3941</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
       </c>
       <c r="M9">
-        <v>-0.0843</v>
+        <v>-0.0784</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1623,22 +1620,22 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.0042</v>
+        <v>1.1264</v>
       </c>
       <c r="I10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.3167</v>
+        <v>0.2616</v>
       </c>
       <c r="L10" t="s">
         <v>62</v>
       </c>
       <c r="M10">
-        <v>0.0498</v>
+        <v>0.0552</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1667,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.9983</v>
+        <v>5.212</v>
       </c>
       <c r="I11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -1682,7 +1679,7 @@
         <v>63</v>
       </c>
       <c r="M11">
-        <v>0.3229</v>
+        <v>0.3334</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1711,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>7.4568</v>
+        <v>7.6716</v>
       </c>
       <c r="I12">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -1726,7 +1723,7 @@
         <v>64</v>
       </c>
       <c r="M12">
-        <v>0.2611</v>
+        <v>0.2659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1755,10 +1752,10 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-4.8876</v>
+        <v>-4.9527</v>
       </c>
       <c r="I13">
-        <v>34.4088</v>
+        <v>33.794</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
@@ -1770,7 +1767,7 @@
         <v>65</v>
       </c>
       <c r="M13">
-        <v>-0.7285</v>
+        <v>-0.7369</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1799,22 +1796,22 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.7109</v>
+        <v>0.5975</v>
       </c>
       <c r="I14">
-        <v>149.8021</v>
+        <v>152.1018</v>
       </c>
       <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.4783</v>
+        <v>0.5511</v>
       </c>
       <c r="L14" t="s">
         <v>66</v>
       </c>
       <c r="M14">
-        <v>0.1115</v>
+        <v>0.093</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1843,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>6.342</v>
+        <v>6.2865</v>
       </c>
       <c r="I15">
-        <v>22.5055</v>
+        <v>22.0481</v>
       </c>
       <c r="J15" t="s">
         <v>54</v>
@@ -1858,7 +1855,7 @@
         <v>67</v>
       </c>
       <c r="M15">
-        <v>1.1045</v>
+        <v>1.0882</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1887,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>-0.1128</v>
+        <v>-0.1049</v>
       </c>
       <c r="I16">
-        <v>8.180099999999999</v>
+        <v>8.1518</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
       </c>
       <c r="K16">
-        <v>0.9129</v>
+        <v>0.919</v>
       </c>
       <c r="L16" t="s">
         <v>68</v>
       </c>
       <c r="M16">
-        <v>-0.0447</v>
+        <v>-0.0417</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1931,22 +1928,22 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-1.1163</v>
+        <v>-1.1952</v>
       </c>
       <c r="I17">
-        <v>155.176</v>
+        <v>158.485</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.266</v>
+        <v>0.2338</v>
       </c>
       <c r="L17" t="s">
         <v>69</v>
       </c>
       <c r="M17">
-        <v>-0.1769</v>
+        <v>-0.1876</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1975,22 +1972,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-0.3269</v>
+        <v>-0.3589</v>
       </c>
       <c r="I18">
-        <v>8.2668</v>
+        <v>8.214</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.7519</v>
+        <v>0.7287</v>
       </c>
       <c r="L18" t="s">
         <v>70</v>
       </c>
       <c r="M18">
-        <v>-0.1301</v>
+        <v>-0.1437</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -2019,22 +2016,22 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>-1.0356</v>
+        <v>-1.0213</v>
       </c>
       <c r="I19">
-        <v>10.1285</v>
+        <v>10.053</v>
       </c>
       <c r="J19" t="s">
         <v>54</v>
       </c>
       <c r="K19">
-        <v>0.3245</v>
+        <v>0.3311</v>
       </c>
       <c r="L19" t="s">
         <v>71</v>
       </c>
       <c r="M19">
-        <v>-0.2808</v>
+        <v>-0.2777</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -2063,22 +2060,22 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>-1.265</v>
+        <v>-1.2558</v>
       </c>
       <c r="I20">
-        <v>153.6413</v>
+        <v>155.716</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>0.2078</v>
+        <v>0.2111</v>
       </c>
       <c r="L20" t="s">
         <v>72</v>
       </c>
       <c r="M20">
-        <v>-0.1989</v>
+        <v>-0.1958</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -2107,22 +2104,22 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.3597</v>
+        <v>0.3614</v>
       </c>
       <c r="I21">
-        <v>9.2035</v>
+        <v>9.0854</v>
       </c>
       <c r="J21" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.7272</v>
+        <v>0.726</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>0.1154</v>
+        <v>0.117</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -2151,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>-4.7572</v>
+        <v>-4.8042</v>
       </c>
       <c r="I22">
-        <v>26.6982</v>
+        <v>26.1933</v>
       </c>
       <c r="J22" t="s">
         <v>54</v>
@@ -2163,10 +2160,10 @@
         <v>0.0001</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M22">
-        <v>-0.7568</v>
+        <v>-0.7638</v>
       </c>
       <c r="N22">
         <v>0.0028</v>
@@ -2195,22 +2192,22 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.3485</v>
+        <v>0.2218</v>
       </c>
       <c r="I23">
-        <v>151.5118</v>
+        <v>154.2429</v>
       </c>
       <c r="J23" t="s">
         <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7279</v>
+        <v>0.8248</v>
       </c>
       <c r="L23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M23">
-        <v>0.0547</v>
+        <v>0.0346</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2239,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5.5983</v>
+        <v>5.5059</v>
       </c>
       <c r="I24">
-        <v>18.9413</v>
+        <v>18.7361</v>
       </c>
       <c r="J24" t="s">
         <v>54</v>
@@ -2251,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M24">
-        <v>1.0382</v>
+        <v>1.0122</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2283,25 +2280,25 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>-3.1205</v>
+        <v>-3.1621</v>
       </c>
       <c r="I25">
-        <v>11.161</v>
+        <v>11.0795</v>
       </c>
       <c r="J25" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.009599999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M25">
-        <v>-0.7642</v>
+        <v>-0.7751</v>
       </c>
       <c r="N25">
-        <v>0.2688</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2327,22 +2324,22 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1.6492</v>
+        <v>1.5097</v>
       </c>
       <c r="I26">
-        <v>146.8066</v>
+        <v>149.0097</v>
       </c>
       <c r="J26" t="s">
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.1012</v>
+        <v>0.1332</v>
       </c>
       <c r="L26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M26">
-        <v>0.2581</v>
+        <v>0.2346</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2371,25 +2368,25 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4.2693</v>
+        <v>4.22</v>
       </c>
       <c r="I27">
-        <v>9.1938</v>
+        <v>9.143800000000001</v>
       </c>
       <c r="J27" t="s">
         <v>54</v>
       </c>
       <c r="K27">
-        <v>0.002</v>
+        <v>0.0022</v>
       </c>
       <c r="L27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M27">
-        <v>1.3714</v>
+        <v>1.351</v>
       </c>
       <c r="N27">
-        <v>0.056</v>
+        <v>0.0616</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2415,22 +2412,22 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-2.0728</v>
+        <v>-2.1023</v>
       </c>
       <c r="I28">
-        <v>8.205500000000001</v>
+        <v>8.188700000000001</v>
       </c>
       <c r="J28" t="s">
         <v>54</v>
       </c>
       <c r="K28">
-        <v>0.07099999999999999</v>
+        <v>0.0679</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M28">
-        <v>-0.8141</v>
+        <v>-0.8259</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2459,25 +2456,25 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2.3833</v>
+        <v>2.2655</v>
       </c>
       <c r="I29">
-        <v>151.4382</v>
+        <v>153.3681</v>
       </c>
       <c r="J29" t="s">
         <v>54</v>
       </c>
       <c r="K29">
-        <v>0.0184</v>
+        <v>0.0249</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M29">
-        <v>0.3741</v>
+        <v>0.3528</v>
       </c>
       <c r="N29">
-        <v>0.5152</v>
+        <v>0.6971999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2503,25 +2500,25 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2.9604</v>
+        <v>2.9402</v>
       </c>
       <c r="I30">
-        <v>7.7741</v>
+        <v>7.7455</v>
       </c>
       <c r="J30" t="s">
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.0187</v>
+        <v>0.0194</v>
       </c>
       <c r="L30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M30">
-        <v>1.4298</v>
+        <v>1.427</v>
       </c>
       <c r="N30">
-        <v>0.5236000000000001</v>
+        <v>0.5432</v>
       </c>
     </row>
   </sheetData>
